--- a/src/main/resources/nhs-dmn/ich_Interpretatie_CH.xlsx
+++ b/src/main/resources/nhs-dmn/ich_Interpretatie_CH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\han\git\rivm\nhs\dmn\nhs-business\src\main\resources\nhs-dmn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67221759-B3F4-4FD2-BFBF-2FCEA53B891F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD0D3A4-D6FC-453B-B638-644CDF94BD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{4203C9A5-FA6C-4E14-8325-EE7186AD0D41}"/>
+    <workbookView xWindow="36990" yWindow="1485" windowWidth="21600" windowHeight="11295" tabRatio="834" xr2:uid="{4203C9A5-FA6C-4E14-8325-EE7186AD0D41}"/>
   </bookViews>
   <sheets>
     <sheet name="InterpretatieCH" sheetId="22" r:id="rId1"/>
@@ -127,22 +127,22 @@
     <t>InterpretatieCH</t>
   </si>
   <si>
-    <t>waarde("T4")</t>
-  </si>
-  <si>
-    <t>waarde("TBG")</t>
-  </si>
-  <si>
-    <t>waarde("TSH")</t>
-  </si>
-  <si>
-    <t>waarde("T4/TBG")</t>
-  </si>
-  <si>
     <t>hpa.isPrematuur</t>
   </si>
   <si>
     <t>hpa.isTweedeHielprik</t>
+  </si>
+  <si>
+    <t>waardeNum("T4")</t>
+  </si>
+  <si>
+    <t>waardeNum("TBG")</t>
+  </si>
+  <si>
+    <t>waardeNum("TSH")</t>
+  </si>
+  <si>
+    <t>waardeNum("T4/TBG")</t>
   </si>
 </sst>
 </file>
@@ -316,10 +316,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,22 +635,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>22</v>
